--- a/output/5Y_P8_KFSDIV.xlsx
+++ b/output/5Y_P8_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-37</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-31</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6447</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.486</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.1958</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4264</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.107</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.8894</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4004</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.3877</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.6367</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.0061</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.835</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.4216</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2404</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.382</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.9583</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2036</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9136</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.4338</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9657</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3568</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.2487</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3991</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.5985</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.6955</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-37</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-31</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -5356,10 +5359,10 @@
         <v>230879.3797</v>
       </c>
       <c r="K20" s="1">
-        <v>160576.7047</v>
+        <v>160579.7633</v>
       </c>
       <c r="L20" s="1">
-        <v>11.6315</v>
+        <v>11.6317</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -5409,10 +5412,10 @@
         <v>237512.497</v>
       </c>
       <c r="K21" s="1">
-        <v>160327.9808</v>
+        <v>160332.0335</v>
       </c>
       <c r="L21" s="1">
-        <v>11.6286</v>
+        <v>11.6289</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -5462,10 +5465,10 @@
         <v>247988.1799</v>
       </c>
       <c r="K22" s="1">
-        <v>173748.4831</v>
+        <v>173752.5358</v>
       </c>
       <c r="L22" s="1">
-        <v>11.7597</v>
+        <v>11.76</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -5515,10 +5518,10 @@
         <v>280043.8776</v>
       </c>
       <c r="K23" s="1">
-        <v>189486.4369</v>
+        <v>189490.4896</v>
       </c>
       <c r="L23" s="1">
-        <v>11.8676</v>
+        <v>11.8679</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -5568,10 +5571,10 @@
         <v>280909.5579</v>
       </c>
       <c r="K24" s="1">
-        <v>177319.2133</v>
+        <v>177371.8649</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7173</v>
+        <v>11.7208</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -5621,10 +5624,10 @@
         <v>269702.5153</v>
       </c>
       <c r="K25" s="1">
-        <v>196530.295</v>
+        <v>196582.9466</v>
       </c>
       <c r="L25" s="1">
-        <v>11.9064</v>
+        <v>11.9096</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -5674,10 +5677,10 @@
         <v>282375.5051</v>
       </c>
       <c r="K26" s="1">
-        <v>234622.6333</v>
+        <v>234675.2849</v>
       </c>
       <c r="L26" s="1">
-        <v>11.9671</v>
+        <v>11.9698</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -5727,10 +5730,10 @@
         <v>292090.3661</v>
       </c>
       <c r="K27" s="1">
-        <v>241826.2572</v>
+        <v>241878.9087</v>
       </c>
       <c r="L27" s="1">
-        <v>11.9806</v>
+        <v>11.9832</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -5780,10 +5783,10 @@
         <v>321696.1084</v>
       </c>
       <c r="K28" s="1">
-        <v>252123.7209</v>
+        <v>252176.3725</v>
       </c>
       <c r="L28" s="1">
-        <v>11.998</v>
+        <v>12.0005</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -5833,10 +5836,10 @@
         <v>341143.1202</v>
       </c>
       <c r="K29" s="1">
-        <v>251557.8018</v>
+        <v>251612.7167</v>
       </c>
       <c r="L29" s="1">
-        <v>11.996</v>
+        <v>11.9987</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -5886,10 +5889,10 @@
         <v>362205.5857</v>
       </c>
       <c r="K30" s="1">
-        <v>252113.0102</v>
+        <v>252167.925</v>
       </c>
       <c r="L30" s="1">
-        <v>11.9988</v>
+        <v>12.0014</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -5939,10 +5942,10 @@
         <v>397257.1362</v>
       </c>
       <c r="K31" s="1">
-        <v>251044.0513</v>
+        <v>251103.2395</v>
       </c>
       <c r="L31" s="1">
-        <v>11.9918</v>
+        <v>11.9946</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -5992,10 +5995,10 @@
         <v>422368.5244</v>
       </c>
       <c r="K32" s="1">
-        <v>245425.2737</v>
+        <v>245506.8893</v>
       </c>
       <c r="L32" s="1">
-        <v>11.9421</v>
+        <v>11.946</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -6045,10 +6048,10 @@
         <v>402253.8689</v>
       </c>
       <c r="K33" s="1">
-        <v>240293.3838</v>
+        <v>240395.5011</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8851</v>
+        <v>11.8902</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -6098,10 +6101,10 @@
         <v>427053.2709</v>
       </c>
       <c r="K34" s="1">
-        <v>280568.8641</v>
+        <v>280670.9814</v>
       </c>
       <c r="L34" s="1">
-        <v>12.1376</v>
+        <v>12.142</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -6151,10 +6154,10 @@
         <v>438628.5147</v>
       </c>
       <c r="K35" s="1">
-        <v>284723.3048</v>
+        <v>284825.4221</v>
       </c>
       <c r="L35" s="1">
-        <v>12.1629</v>
+        <v>12.1672</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -6204,10 +6207,10 @@
         <v>446780.1854</v>
       </c>
       <c r="K36" s="1">
-        <v>293165.1925</v>
+        <v>293267.3098</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2138</v>
+        <v>12.218</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -6257,10 +6260,10 @@
         <v>497616.9775</v>
       </c>
       <c r="K37" s="1">
-        <v>305027.1838</v>
+        <v>305129.3011</v>
       </c>
       <c r="L37" s="1">
-        <v>12.279</v>
+        <v>12.2831</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -6310,10 +6313,10 @@
         <v>508384.0163</v>
       </c>
       <c r="K38" s="1">
-        <v>284863.6926</v>
+        <v>285046.4019</v>
       </c>
       <c r="L38" s="1">
-        <v>12.107</v>
+        <v>12.1148</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6447</v>
@@ -6363,10 +6366,10 @@
         <v>501030.6068</v>
       </c>
       <c r="K39" s="1">
-        <v>294133.6869</v>
+        <v>294316.3962</v>
       </c>
       <c r="L39" s="1">
-        <v>12.1891</v>
+        <v>12.1966</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.486</v>
@@ -6416,10 +6419,10 @@
         <v>554468.5231</v>
       </c>
       <c r="K40" s="1">
-        <v>321559.5875</v>
+        <v>321742.2968</v>
       </c>
       <c r="L40" s="1">
-        <v>12.3677</v>
+        <v>12.3747</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.1958</v>
@@ -6469,10 +6472,10 @@
         <v>582344.6797</v>
       </c>
       <c r="K41" s="1">
-        <v>309682.5544</v>
+        <v>309912.7198</v>
       </c>
       <c r="L41" s="1">
-        <v>12.2722</v>
+        <v>12.2813</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4264</v>
@@ -6522,10 +6525,10 @@
         <v>598041.5009</v>
       </c>
       <c r="K42" s="1">
-        <v>301774.8218</v>
+        <v>302036.5632</v>
       </c>
       <c r="L42" s="1">
-        <v>12.1943</v>
+        <v>12.2048</v>
       </c>
       <c r="M42" s="1">
         <v>0.75</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.107</v>
@@ -6575,10 +6578,10 @@
         <v>641715.2904000001</v>
       </c>
       <c r="K43" s="1">
-        <v>306095.2463</v>
+        <v>306356.9877</v>
       </c>
       <c r="L43" s="1">
-        <v>12.239</v>
+        <v>12.2495</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.8894</v>
@@ -6628,10 +6631,10 @@
         <v>646372.0544</v>
       </c>
       <c r="K44" s="1">
-        <v>299080.5854</v>
+        <v>299370.3587</v>
       </c>
       <c r="L44" s="1">
-        <v>12.1575</v>
+        <v>12.1693</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4004</v>
@@ -6681,10 +6684,10 @@
         <v>666001.7254999999</v>
       </c>
       <c r="K45" s="1">
-        <v>314485.356</v>
+        <v>314775.1294</v>
       </c>
       <c r="L45" s="1">
-        <v>12.3275</v>
+        <v>12.3389</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.3877</v>
@@ -6734,10 +6737,10 @@
         <v>648741.5947</v>
       </c>
       <c r="K46" s="1">
-        <v>337024.7431</v>
+        <v>337314.5164</v>
       </c>
       <c r="L46" s="1">
-        <v>12.537</v>
+        <v>12.5478</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.6367</v>
@@ -6787,10 +6790,10 @@
         <v>636630.057</v>
       </c>
       <c r="K47" s="1">
-        <v>374343.8592</v>
+        <v>374633.6326</v>
       </c>
       <c r="L47" s="1">
-        <v>12.775</v>
+        <v>12.7849</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.0061</v>
@@ -6840,10 +6843,10 @@
         <v>595256.7120000001</v>
       </c>
       <c r="K48" s="1">
-        <v>406434.5222</v>
+        <v>406724.2955</v>
       </c>
       <c r="L48" s="1">
-        <v>12.9064</v>
+        <v>12.9156</v>
       </c>
       <c r="M48" s="1">
         <v>0.5</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.835</v>
@@ -6893,10 +6896,10 @@
         <v>649134.0954</v>
       </c>
       <c r="K49" s="1">
-        <v>467925.4724</v>
+        <v>468215.2458</v>
       </c>
       <c r="L49" s="1">
-        <v>12.9228</v>
+        <v>12.9308</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.4216</v>
@@ -6946,10 +6949,10 @@
         <v>679488.5456</v>
       </c>
       <c r="K50" s="1">
-        <v>447893.1048</v>
+        <v>448262.9342</v>
       </c>
       <c r="L50" s="1">
-        <v>12.8837</v>
+        <v>12.8944</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2404</v>
@@ -6999,10 +7002,10 @@
         <v>649353.1307</v>
       </c>
       <c r="K51" s="1">
-        <v>437497.1441</v>
+        <v>437908.484</v>
       </c>
       <c r="L51" s="1">
-        <v>12.8506</v>
+        <v>12.8627</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.382</v>
@@ -7052,10 +7055,10 @@
         <v>638991.5473</v>
       </c>
       <c r="K52" s="1">
-        <v>487833.6486</v>
+        <v>488244.9884</v>
       </c>
       <c r="L52" s="1">
-        <v>12.8924</v>
+        <v>12.9032</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.9583</v>
@@ -7105,10 +7108,10 @@
         <v>631371.7091</v>
       </c>
       <c r="K53" s="1">
-        <v>530420.5246</v>
+        <v>530831.8645</v>
       </c>
       <c r="L53" s="1">
-        <v>12.852</v>
+        <v>12.862</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2036</v>
@@ -7158,10 +7161,10 @@
         <v>651927.8464</v>
       </c>
       <c r="K54" s="1">
-        <v>557980.2805</v>
+        <v>558391.6204</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8061</v>
+        <v>12.8155</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9136</v>
@@ -7211,10 +7214,10 @@
         <v>708449.6107</v>
       </c>
       <c r="K55" s="1">
-        <v>557311.2961</v>
+        <v>557725.3112</v>
       </c>
       <c r="L55" s="1">
-        <v>12.8068</v>
+        <v>12.8163</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.4338</v>
@@ -7264,10 +7267,10 @@
         <v>740199.9482</v>
       </c>
       <c r="K56" s="1">
-        <v>536391.696</v>
+        <v>536889.2957</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8017</v>
+        <v>12.8136</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9657</v>
@@ -7317,10 +7320,10 @@
         <v>731037.8003</v>
       </c>
       <c r="K57" s="1">
-        <v>524594.206</v>
+        <v>525138.9582</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7876</v>
+        <v>12.8009</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3568</v>
@@ -7370,10 +7373,10 @@
         <v>768888.3625</v>
       </c>
       <c r="K58" s="1">
-        <v>553873.3198000001</v>
+        <v>554418.0719</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7982</v>
+        <v>12.8108</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.2487</v>
@@ -7423,10 +7426,10 @@
         <v>774274.5187</v>
       </c>
       <c r="K59" s="1">
-        <v>546954.5203</v>
+        <v>547526.9299</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7912</v>
+        <v>12.8045</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3991</v>
@@ -7476,10 +7479,10 @@
         <v>790800.17</v>
       </c>
       <c r="K60" s="1">
-        <v>561626.9424000001</v>
+        <v>562199.352</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8034</v>
+        <v>12.8164</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.5985</v>
@@ -7529,10 +7532,10 @@
         <v>825358.1919</v>
       </c>
       <c r="K61" s="1">
-        <v>565056.4043000001</v>
+        <v>565628.8139</v>
       </c>
       <c r="L61" s="1">
-        <v>12.807</v>
+        <v>12.8199</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.6955</v>
@@ -7582,10 +7585,10 @@
         <v>839632.9215000001</v>
       </c>
       <c r="K62" s="1">
-        <v>566281.204</v>
+        <v>566853.6136</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8086</v>
+        <v>12.8216</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-37</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-31</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -8668,10 +8671,10 @@
         <v>232151.2646</v>
       </c>
       <c r="K20" s="1">
-        <v>168208.4857</v>
+        <v>168209.7657</v>
       </c>
       <c r="L20" s="1">
-        <v>11.6746</v>
+        <v>11.6747</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -8721,10 +8724,10 @@
         <v>238627.5123</v>
       </c>
       <c r="K21" s="1">
-        <v>168453.6618</v>
+        <v>168454.9417</v>
       </c>
       <c r="L21" s="1">
-        <v>11.6773</v>
+        <v>11.6774</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -8774,10 +8777,10 @@
         <v>249108.0232</v>
       </c>
       <c r="K22" s="1">
-        <v>183028.6521</v>
+        <v>183029.9321</v>
       </c>
       <c r="L22" s="1">
-        <v>11.8097</v>
+        <v>11.8098</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -8827,10 +8830,10 @@
         <v>282300.1485</v>
       </c>
       <c r="K23" s="1">
-        <v>200098.7133</v>
+        <v>200099.9933</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9171</v>
+        <v>11.9172</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -8880,10 +8883,10 @@
         <v>282669.9054</v>
       </c>
       <c r="K24" s="1">
-        <v>187893.7857</v>
+        <v>187943.8152</v>
       </c>
       <c r="L24" s="1">
-        <v>11.7767</v>
+        <v>11.7799</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -8933,10 +8936,10 @@
         <v>270234.0808</v>
       </c>
       <c r="K25" s="1">
-        <v>208767.1544</v>
+        <v>208817.1838</v>
       </c>
       <c r="L25" s="1">
-        <v>11.966</v>
+        <v>11.9689</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -8986,10 +8989,10 @@
         <v>283064.3733</v>
       </c>
       <c r="K26" s="1">
-        <v>249678.1375</v>
+        <v>249728.167</v>
       </c>
       <c r="L26" s="1">
-        <v>12.018</v>
+        <v>12.0204</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -9039,10 +9042,10 @@
         <v>292758.821</v>
       </c>
       <c r="K27" s="1">
-        <v>257989.2223</v>
+        <v>258039.2517</v>
       </c>
       <c r="L27" s="1">
-        <v>12.031</v>
+        <v>12.0333</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -9092,10 +9095,10 @@
         <v>323613.0599</v>
       </c>
       <c r="K28" s="1">
-        <v>269636.0164</v>
+        <v>269686.0458</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0474</v>
+        <v>12.0496</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -9145,10 +9148,10 @@
         <v>343699.9625</v>
       </c>
       <c r="K29" s="1">
-        <v>269770.0784</v>
+        <v>269820.1079</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0478</v>
+        <v>12.05</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -9198,10 +9201,10 @@
         <v>365539.4784</v>
       </c>
       <c r="K30" s="1">
-        <v>271129.5944</v>
+        <v>271179.6239</v>
       </c>
       <c r="L30" s="1">
-        <v>12.0538</v>
+        <v>12.056</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -9251,10 +9254,10 @@
         <v>402400.3073</v>
       </c>
       <c r="K31" s="1">
-        <v>270781.9787</v>
+        <v>270833.3978</v>
       </c>
       <c r="L31" s="1">
-        <v>12.0518</v>
+        <v>12.054</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -9304,10 +9307,10 @@
         <v>428660.1693</v>
       </c>
       <c r="K32" s="1">
-        <v>265578.5684</v>
+        <v>265650.757</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0099</v>
+        <v>12.0132</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -9357,10 +9360,10 @@
         <v>406173.8229</v>
       </c>
       <c r="K33" s="1">
-        <v>260914.0727</v>
+        <v>261004.8958</v>
       </c>
       <c r="L33" s="1">
-        <v>11.9629</v>
+        <v>11.9671</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -9410,10 +9413,10 @@
         <v>432151.4148</v>
       </c>
       <c r="K34" s="1">
-        <v>305249.5269</v>
+        <v>305340.3499</v>
       </c>
       <c r="L34" s="1">
-        <v>12.2099</v>
+        <v>12.2136</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -9463,10 +9466,10 @@
         <v>443855.8183</v>
       </c>
       <c r="K35" s="1">
-        <v>310661.5398</v>
+        <v>310752.3629</v>
       </c>
       <c r="L35" s="1">
-        <v>12.2392</v>
+        <v>12.2428</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -9516,10 +9519,10 @@
         <v>451842.8442</v>
       </c>
       <c r="K36" s="1">
-        <v>320764.967</v>
+        <v>320855.7901</v>
       </c>
       <c r="L36" s="1">
-        <v>12.2932</v>
+        <v>12.2967</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -9569,10 +9572,10 @@
         <v>506315.6089</v>
       </c>
       <c r="K37" s="1">
-        <v>334641.0404</v>
+        <v>334731.8634</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3603</v>
+        <v>12.3637</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -9622,10 +9625,10 @@
         <v>517153.7288</v>
       </c>
       <c r="K38" s="1">
-        <v>313678.1345</v>
+        <v>313852.7448</v>
       </c>
       <c r="L38" s="1">
-        <v>12.201</v>
+        <v>12.2078</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6447</v>
@@ -9675,10 +9678,10 @@
         <v>508139.3361</v>
       </c>
       <c r="K39" s="1">
-        <v>324851.4565</v>
+        <v>325026.0668</v>
       </c>
       <c r="L39" s="1">
-        <v>12.2887</v>
+        <v>12.2953</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.486</v>
@@ -9728,10 +9731,10 @@
         <v>565782.0098</v>
       </c>
       <c r="K40" s="1">
-        <v>355972.1309</v>
+        <v>356146.7412</v>
       </c>
       <c r="L40" s="1">
-        <v>12.4658</v>
+        <v>12.472</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.1958</v>
@@ -9781,10 +9784,10 @@
         <v>595466.0081</v>
       </c>
       <c r="K41" s="1">
-        <v>344035.7574</v>
+        <v>344258.0608</v>
       </c>
       <c r="L41" s="1">
-        <v>12.3814</v>
+        <v>12.3894</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4264</v>
@@ -9834,10 +9837,10 @@
         <v>611755.1346</v>
       </c>
       <c r="K42" s="1">
-        <v>336468.75</v>
+        <v>336721.2689</v>
       </c>
       <c r="L42" s="1">
-        <v>12.3157</v>
+        <v>12.325</v>
       </c>
       <c r="M42" s="1">
         <v>0.75</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.107</v>
@@ -9887,10 +9890,10 @@
         <v>658973.7466</v>
       </c>
       <c r="K43" s="1">
-        <v>342411.2865</v>
+        <v>342663.8054</v>
       </c>
       <c r="L43" s="1">
-        <v>12.3698</v>
+        <v>12.3789</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.8894</v>
@@ -9940,10 +9943,10 @@
         <v>663044.4669999999</v>
       </c>
       <c r="K44" s="1">
-        <v>335852.9105</v>
+        <v>336131.6379</v>
       </c>
       <c r="L44" s="1">
-        <v>12.3029</v>
+        <v>12.3131</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4004</v>
@@ -9993,10 +9996,10 @@
         <v>683689.6557999999</v>
       </c>
       <c r="K45" s="1">
-        <v>354185.7479</v>
+        <v>354464.4753</v>
       </c>
       <c r="L45" s="1">
-        <v>12.4792</v>
+        <v>12.4891</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.3877</v>
@@ -10046,10 +10049,10 @@
         <v>663278.1564</v>
       </c>
       <c r="K46" s="1">
-        <v>380533.4827</v>
+        <v>380812.2101</v>
       </c>
       <c r="L46" s="1">
-        <v>12.6907</v>
+        <v>12.7</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.6367</v>
@@ -10099,10 +10102,10 @@
         <v>648545.7148</v>
       </c>
       <c r="K47" s="1">
-        <v>423465.1033</v>
+        <v>423743.8307</v>
       </c>
       <c r="L47" s="1">
-        <v>12.9224</v>
+        <v>12.9309</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.0061</v>
@@ -10152,10 +10155,10 @@
         <v>600940.2909</v>
       </c>
       <c r="K48" s="1">
-        <v>460690.9737</v>
+        <v>460969.7011</v>
       </c>
       <c r="L48" s="1">
-        <v>13.0478</v>
+        <v>13.0557</v>
       </c>
       <c r="M48" s="1">
         <v>0.5</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.835</v>
@@ -10205,10 +10208,10 @@
         <v>660217.7807</v>
       </c>
       <c r="K49" s="1">
-        <v>531007.5567</v>
+        <v>531286.2841</v>
       </c>
       <c r="L49" s="1">
-        <v>13.0457</v>
+        <v>13.0526</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.4216</v>
@@ -10258,10 +10261,10 @@
         <v>693158.023</v>
       </c>
       <c r="K50" s="1">
-        <v>509894.8587</v>
+        <v>510257.9596</v>
       </c>
       <c r="L50" s="1">
-        <v>13.014</v>
+        <v>13.0232</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2404</v>
@@ -10311,10 +10314,10 @@
         <v>657806.3791</v>
       </c>
       <c r="K51" s="1">
-        <v>499618.475</v>
+        <v>500022.6089</v>
       </c>
       <c r="L51" s="1">
-        <v>12.9874</v>
+        <v>12.9979</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.382</v>
@@ -10364,10 +10367,10 @@
         <v>644697.3719</v>
       </c>
       <c r="K52" s="1">
-        <v>557971.6504</v>
+        <v>558375.7842</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0161</v>
+        <v>13.0255</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.9583</v>
@@ -10417,10 +10420,10 @@
         <v>634678.3334</v>
       </c>
       <c r="K53" s="1">
-        <v>607727.7203</v>
+        <v>608131.8541999999</v>
       </c>
       <c r="L53" s="1">
-        <v>12.964</v>
+        <v>12.9726</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2036</v>
@@ -10470,10 +10473,10 @@
         <v>656693.9033</v>
       </c>
       <c r="K54" s="1">
-        <v>640575.5745</v>
+        <v>640979.7083000001</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9097</v>
+        <v>12.9179</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9136</v>
@@ -10523,10 +10526,10 @@
         <v>719761.5139</v>
       </c>
       <c r="K55" s="1">
-        <v>641392.8631</v>
+        <v>641796.997</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9088</v>
+        <v>12.9169</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.4338</v>
@@ -10576,10 +10579,10 @@
         <v>754660.2899</v>
       </c>
       <c r="K56" s="1">
-        <v>619121.7663</v>
+        <v>619614.8847000001</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9077</v>
+        <v>12.918</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9657</v>
@@ -10629,10 +10632,10 @@
         <v>742667.1002</v>
       </c>
       <c r="K57" s="1">
-        <v>607266.4412</v>
+        <v>607806.9432</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8974</v>
+        <v>12.9088</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3568</v>
@@ -10682,10 +10685,10 @@
         <v>784676.2481</v>
       </c>
       <c r="K58" s="1">
-        <v>642556.9</v>
+        <v>643097.4020999999</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9025</v>
+        <v>12.9134</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.2487</v>
@@ -10735,10 +10738,10 @@
         <v>789353.0371</v>
       </c>
       <c r="K59" s="1">
-        <v>636316.7237</v>
+        <v>636882.1703999999</v>
       </c>
       <c r="L59" s="1">
-        <v>12.898</v>
+        <v>12.9094</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3991</v>
@@ -10788,10 +10791,10 @@
         <v>806894.848</v>
       </c>
       <c r="K60" s="1">
-        <v>655002.7174</v>
+        <v>655568.1641000001</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9084</v>
+        <v>12.9196</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.5985</v>
@@ -10841,10 +10844,10 @@
         <v>845322.1632</v>
       </c>
       <c r="K61" s="1">
-        <v>660763.9262</v>
+        <v>661329.3729</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9128</v>
+        <v>12.9238</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.6955</v>
@@ -10894,10 +10897,10 @@
         <v>860285.669</v>
       </c>
       <c r="K62" s="1">
-        <v>664015.1986999999</v>
+        <v>664580.6454</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9161</v>
+        <v>12.9271</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-37</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-31</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -12192,10 +12195,10 @@
         <v>284506.8404</v>
       </c>
       <c r="K24" s="1">
-        <v>199222.7652</v>
+        <v>199271.5027</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8351</v>
+        <v>11.838</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -12245,10 +12248,10 @@
         <v>270751.1831</v>
       </c>
       <c r="K25" s="1">
-        <v>221921.1332</v>
+        <v>221969.8706</v>
       </c>
       <c r="L25" s="1">
-        <v>12.0246</v>
+        <v>12.0272</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -12298,10 +12301,10 @@
         <v>283750.6454</v>
       </c>
       <c r="K26" s="1">
-        <v>265908.3869</v>
+        <v>265957.1244</v>
       </c>
       <c r="L26" s="1">
-        <v>12.0678</v>
+        <v>12.07</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -12351,10 +12354,10 @@
         <v>293422.8316</v>
       </c>
       <c r="K27" s="1">
-        <v>275468.7542</v>
+        <v>275517.4916</v>
       </c>
       <c r="L27" s="1">
-        <v>12.0801</v>
+        <v>12.0823</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -12404,10 +12407,10 @@
         <v>325627.9084</v>
       </c>
       <c r="K28" s="1">
-        <v>288635.2488</v>
+        <v>288683.9862</v>
       </c>
       <c r="L28" s="1">
-        <v>12.0953</v>
+        <v>12.0974</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -12457,10 +12460,10 @@
         <v>346407.9675</v>
       </c>
       <c r="K29" s="1">
-        <v>289595.5522</v>
+        <v>289644.2897</v>
       </c>
       <c r="L29" s="1">
-        <v>12.0979</v>
+        <v>12.1</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -12510,10 +12513,10 @@
         <v>369095.1107</v>
       </c>
       <c r="K30" s="1">
-        <v>291902.968</v>
+        <v>291951.7054</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1071</v>
+        <v>12.1091</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -12563,10 +12566,10 @@
         <v>407932.3665</v>
       </c>
       <c r="K31" s="1">
-        <v>292421.5811</v>
+        <v>292470.3186</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1099</v>
+        <v>12.1119</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -12616,10 +12619,10 @@
         <v>435453.9665</v>
       </c>
       <c r="K32" s="1">
-        <v>287758.2143</v>
+        <v>287825.5656</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0759</v>
+        <v>12.0787</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -12669,10 +12672,10 @@
         <v>410353.1591</v>
       </c>
       <c r="K33" s="1">
-        <v>283698.8867</v>
+        <v>283782.4549</v>
       </c>
       <c r="L33" s="1">
-        <v>12.0387</v>
+        <v>12.0423</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -12722,10 +12725,10 @@
         <v>437630.9444</v>
       </c>
       <c r="K34" s="1">
-        <v>332608.2692</v>
+        <v>332691.8374</v>
       </c>
       <c r="L34" s="1">
-        <v>12.2804</v>
+        <v>12.2835</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -12775,10 +12778,10 @@
         <v>449478.2992</v>
       </c>
       <c r="K35" s="1">
-        <v>339516.6409</v>
+        <v>339600.2091</v>
       </c>
       <c r="L35" s="1">
-        <v>12.3136</v>
+        <v>12.3166</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -12828,10 +12831,10 @@
         <v>457281.5396</v>
       </c>
       <c r="K36" s="1">
-        <v>351576.7757</v>
+        <v>351660.3439</v>
       </c>
       <c r="L36" s="1">
-        <v>12.3705</v>
+        <v>12.3735</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -12881,10 +12884,10 @@
         <v>515813.4049</v>
       </c>
       <c r="K37" s="1">
-        <v>367815.9995</v>
+        <v>367899.5677</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4394</v>
+        <v>12.4423</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -12934,10 +12937,10 @@
         <v>526731.2282</v>
       </c>
       <c r="K38" s="1">
-        <v>346087.6986</v>
+        <v>346258.1132</v>
       </c>
       <c r="L38" s="1">
-        <v>12.2926</v>
+        <v>12.2987</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6447</v>
@@ -12987,10 +12990,10 @@
         <v>515847.4903</v>
       </c>
       <c r="K39" s="1">
-        <v>359531.2694</v>
+        <v>359701.684</v>
       </c>
       <c r="L39" s="1">
-        <v>12.3859</v>
+        <v>12.3918</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.486</v>
@@ -13040,10 +13043,10 @@
         <v>578228.7736</v>
       </c>
       <c r="K40" s="1">
-        <v>394953.523</v>
+        <v>395123.9376</v>
       </c>
       <c r="L40" s="1">
-        <v>12.5616</v>
+        <v>12.567</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.1958</v>
@@ -13093,10 +13096,10 @@
         <v>609960.7947</v>
       </c>
       <c r="K41" s="1">
-        <v>383103.3276</v>
+        <v>383321.0911</v>
       </c>
       <c r="L41" s="1">
-        <v>12.488</v>
+        <v>12.4951</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4264</v>
@@ -13146,10 +13149,10 @@
         <v>626923.2179</v>
       </c>
       <c r="K42" s="1">
-        <v>376084.5052</v>
+        <v>376330.2951</v>
       </c>
       <c r="L42" s="1">
-        <v>12.4346</v>
+        <v>12.4427</v>
       </c>
       <c r="M42" s="1">
         <v>0.75</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.107</v>
@@ -13199,10 +13202,10 @@
         <v>678177.7632</v>
       </c>
       <c r="K43" s="1">
-        <v>384042.4849</v>
+        <v>384288.2748</v>
       </c>
       <c r="L43" s="1">
-        <v>12.4979</v>
+        <v>12.5059</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.8894</v>
@@ -13252,10 +13255,10 @@
         <v>681577.7230999999</v>
       </c>
       <c r="K44" s="1">
-        <v>378185.739</v>
+        <v>378454.9337</v>
       </c>
       <c r="L44" s="1">
-        <v>12.4457</v>
+        <v>12.4545</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4004</v>
@@ -13305,10 +13308,10 @@
         <v>703378.9547999999</v>
       </c>
       <c r="K45" s="1">
-        <v>400061.0594</v>
+        <v>400330.2541</v>
       </c>
       <c r="L45" s="1">
-        <v>12.6284</v>
+        <v>12.6369</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.3877</v>
@@ -13358,10 +13361,10 @@
         <v>679334.9416</v>
       </c>
       <c r="K46" s="1">
-        <v>430984.0865</v>
+        <v>431253.2812</v>
       </c>
       <c r="L46" s="1">
-        <v>12.8417</v>
+        <v>12.8497</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.6367</v>
@@ -13411,10 +13414,10 @@
         <v>661570.9052</v>
       </c>
       <c r="K47" s="1">
-        <v>480595.8547</v>
+        <v>480865.0494</v>
       </c>
       <c r="L47" s="1">
-        <v>13.0671</v>
+        <v>13.0745</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.0061</v>
@@ -13464,10 +13467,10 @@
         <v>606733.0127</v>
       </c>
       <c r="K48" s="1">
-        <v>523983.1495</v>
+        <v>524252.3441</v>
       </c>
       <c r="L48" s="1">
-        <v>13.1862</v>
+        <v>13.1929</v>
       </c>
       <c r="M48" s="1">
         <v>0.5</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.835</v>
@@ -13517,10 +13520,10 @@
         <v>672290.6836</v>
       </c>
       <c r="K49" s="1">
-        <v>604775.2606</v>
+        <v>605044.4552</v>
       </c>
       <c r="L49" s="1">
-        <v>13.1654</v>
+        <v>13.1713</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.4216</v>
@@ -13570,10 +13573,10 @@
         <v>708252.1944</v>
       </c>
       <c r="K50" s="1">
-        <v>582650.6084</v>
+        <v>583008.2206</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1403</v>
+        <v>13.1484</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2404</v>
@@ -13623,10 +13626,10 @@
         <v>666784.8041</v>
       </c>
       <c r="K51" s="1">
-        <v>572771.9133</v>
+        <v>573168.9706</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1198</v>
+        <v>13.1289</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.382</v>
@@ -13676,10 +13679,10 @@
         <v>650436.0549</v>
       </c>
       <c r="K52" s="1">
-        <v>640794.5309</v>
+        <v>641191.5882</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1352</v>
+        <v>13.1434</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.9583</v>
@@ -13729,10 +13732,10 @@
         <v>637616.9342</v>
       </c>
       <c r="K53" s="1">
-        <v>698392.336</v>
+        <v>698789.3933</v>
       </c>
       <c r="L53" s="1">
-        <v>13.0719</v>
+        <v>13.0794</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2036</v>
@@ -13782,10 +13785,10 @@
         <v>660860.1433</v>
       </c>
       <c r="K54" s="1">
-        <v>708392.336</v>
+        <v>708789.3933</v>
       </c>
       <c r="L54" s="1">
-        <v>13.0552</v>
+        <v>13.0625</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9136</v>
@@ -13835,10 +13838,10 @@
         <v>729383.3441</v>
       </c>
       <c r="K55" s="1">
-        <v>718392.336</v>
+        <v>718789.3933</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0429</v>
+        <v>13.0501</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.4338</v>
@@ -13888,10 +13891,10 @@
         <v>768031.5587000001</v>
       </c>
       <c r="K56" s="1">
-        <v>719959.8186999999</v>
+        <v>720356.876</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0427</v>
+        <v>13.0499</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9657</v>
@@ -13941,10 +13944,10 @@
         <v>752649.5667</v>
       </c>
       <c r="K57" s="1">
-        <v>708373.1361</v>
+        <v>708816.5032</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0361</v>
+        <v>13.0442</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3568</v>
@@ -13994,10 +13997,10 @@
         <v>799645.7830000001</v>
       </c>
       <c r="K58" s="1">
-        <v>751211.507</v>
+        <v>751654.8742</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0335</v>
+        <v>13.0412</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.2487</v>
@@ -14047,10 +14050,10 @@
         <v>803467.5392</v>
       </c>
       <c r="K59" s="1">
-        <v>746153.7092</v>
+        <v>746617.2945</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0312</v>
+        <v>13.0393</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3991</v>
@@ -14100,10 +14103,10 @@
         <v>822236.9724</v>
       </c>
       <c r="K60" s="1">
-        <v>770060.0760999999</v>
+        <v>770523.6615</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0386</v>
+        <v>13.0465</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.5985</v>
@@ -14153,10 +14156,10 @@
         <v>865348.6567000001</v>
       </c>
       <c r="K61" s="1">
-        <v>779040.0555</v>
+        <v>779503.6408000001</v>
       </c>
       <c r="L61" s="1">
-        <v>13.043</v>
+        <v>13.0507</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.6955</v>
@@ -14206,10 +14209,10 @@
         <v>881149.4526</v>
       </c>
       <c r="K62" s="1">
-        <v>785165.6035</v>
+        <v>785629.1889</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0473</v>
+        <v>13.055</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.429399999999999</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.603999999999999</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3595</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-39</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0875</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.1692</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-37</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0872</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0976</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.8505</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.8576</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5699</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5994</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-31</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6663</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.701</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8109</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.9322</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5846</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2867</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.0645</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8083</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.5636</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.1788</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.5668</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.962</v>
@@ -15504,10 +15507,10 @@
         <v>286379.0262</v>
       </c>
       <c r="K24" s="1">
-        <v>211405.5675</v>
+        <v>211454.1054</v>
       </c>
       <c r="L24" s="1">
-        <v>11.8949</v>
+        <v>11.8976</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2659</v>
@@ -15557,10 +15560,10 @@
         <v>271205.2674</v>
       </c>
       <c r="K25" s="1">
-        <v>236107.5755</v>
+        <v>236156.1134</v>
       </c>
       <c r="L25" s="1">
-        <v>12.0842</v>
+        <v>12.0867</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.4103</v>
@@ -15610,10 +15613,10 @@
         <v>284345.6125</v>
       </c>
       <c r="K26" s="1">
-        <v>278134.2283</v>
+        <v>278182.7663</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1149</v>
+        <v>12.1171</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.3976</v>
@@ -15663,10 +15666,10 @@
         <v>294003.8665</v>
       </c>
       <c r="K27" s="1">
-        <v>288134.2283</v>
+        <v>288182.7663</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1258</v>
+        <v>12.1278</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.9013</v>
@@ -15716,10 +15719,10 @@
         <v>327006.7755</v>
       </c>
       <c r="K28" s="1">
-        <v>298134.2283</v>
+        <v>298182.7663</v>
       </c>
       <c r="L28" s="1">
-        <v>12.1355</v>
+        <v>12.1375</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.3527</v>
@@ -15769,10 +15772,10 @@
         <v>348494.0419</v>
       </c>
       <c r="K29" s="1">
-        <v>311741.6087</v>
+        <v>311790.1467</v>
       </c>
       <c r="L29" s="1">
-        <v>12.168</v>
+        <v>12.1699</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8804</v>
@@ -15822,10 +15825,10 @@
         <v>372106.3208</v>
       </c>
       <c r="K30" s="1">
-        <v>315161.5992</v>
+        <v>315210.1371</v>
       </c>
       <c r="L30" s="1">
-        <v>12.18</v>
+        <v>12.1819</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6268</v>
@@ -15875,10 +15878,10 @@
         <v>413104.3055</v>
       </c>
       <c r="K31" s="1">
-        <v>316714.0729</v>
+        <v>316762.6109</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1874</v>
+        <v>12.1893</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3636</v>
@@ -15928,10 +15931,10 @@
         <v>442013.025</v>
       </c>
       <c r="K32" s="1">
-        <v>312737.7187</v>
+        <v>312802.1283</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1614</v>
+        <v>12.1639</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8711</v>
@@ -15981,10 +15984,10 @@
         <v>414027.9903</v>
       </c>
       <c r="K33" s="1">
-        <v>309446.6537</v>
+        <v>309524.211</v>
       </c>
       <c r="L33" s="1">
-        <v>12.1343</v>
+        <v>12.1373</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1252</v>
@@ -16034,10 +16037,10 @@
         <v>442741.7072</v>
       </c>
       <c r="K34" s="1">
-        <v>363512.8456</v>
+        <v>363590.4029</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3678</v>
+        <v>12.3705</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1934</v>
@@ -16087,10 +16090,10 @@
         <v>454747.4077</v>
       </c>
       <c r="K35" s="1">
-        <v>372196.9869</v>
+        <v>372274.5442</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4043</v>
+        <v>12.4069</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.1176</v>
@@ -16140,10 +16143,10 @@
         <v>462345.2963</v>
       </c>
       <c r="K36" s="1">
-        <v>386558.7706</v>
+        <v>386636.3279</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4635</v>
+        <v>12.466</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3311</v>
@@ -16193,10 +16196,10 @@
         <v>525413.1449</v>
       </c>
       <c r="K37" s="1">
-        <v>405569.417</v>
+        <v>405646.9743</v>
       </c>
       <c r="L37" s="1">
-        <v>12.5334</v>
+        <v>12.5358</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3637</v>
@@ -16246,10 +16249,10 @@
         <v>536420.4366</v>
       </c>
       <c r="K38" s="1">
-        <v>383131.6284</v>
+        <v>383298.8679</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3997</v>
+        <v>12.4051</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6447</v>
@@ -16299,10 +16302,10 @@
         <v>523430.3947</v>
       </c>
       <c r="K39" s="1">
-        <v>399280.2447</v>
+        <v>399447.4842</v>
       </c>
       <c r="L39" s="1">
-        <v>12.498</v>
+        <v>12.5032</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.486</v>
@@ -16352,10 +16355,10 @@
         <v>591158.3491</v>
       </c>
       <c r="K40" s="1">
-        <v>439715.0148</v>
+        <v>439882.2543</v>
       </c>
       <c r="L40" s="1">
-        <v>12.6708</v>
+        <v>12.6756</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.1958</v>
@@ -16405,10 +16408,10 @@
         <v>625213.5521</v>
       </c>
       <c r="K41" s="1">
-        <v>428140.0738</v>
+        <v>428353.5623</v>
       </c>
       <c r="L41" s="1">
-        <v>12.6083</v>
+        <v>12.6146</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.4264</v>
@@ -16458,10 +16461,10 @@
         <v>642942.4144</v>
       </c>
       <c r="K42" s="1">
-        <v>421932.1849</v>
+        <v>422170.4618</v>
       </c>
       <c r="L42" s="1">
-        <v>12.567</v>
+        <v>12.5741</v>
       </c>
       <c r="M42" s="1">
         <v>0.75</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>17.107</v>
@@ -16511,10 +16514,10 @@
         <v>698798.6992</v>
       </c>
       <c r="K43" s="1">
-        <v>432385.2318</v>
+        <v>432623.5087</v>
       </c>
       <c r="L43" s="1">
-        <v>12.6393</v>
+        <v>12.6462</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.8894</v>
@@ -16564,10 +16567,10 @@
         <v>701429.7227</v>
       </c>
       <c r="K44" s="1">
-        <v>427542.9818</v>
+        <v>427800.6094</v>
       </c>
       <c r="L44" s="1">
-        <v>12.6018</v>
+        <v>12.6094</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4004</v>
@@ -16617,10 +16620,10 @@
         <v>724548.7932</v>
       </c>
       <c r="K45" s="1">
-        <v>453704.9338</v>
+        <v>453962.5614</v>
       </c>
       <c r="L45" s="1">
-        <v>12.7901</v>
+        <v>12.7974</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.3877</v>
@@ -16670,10 +16673,10 @@
         <v>696310.2633</v>
       </c>
       <c r="K46" s="1">
-        <v>490130.2178</v>
+        <v>490387.8454</v>
       </c>
       <c r="L46" s="1">
-        <v>13.0044</v>
+        <v>13.0112</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>14.6367</v>
@@ -16723,10 +16726,10 @@
         <v>675033.0547</v>
       </c>
       <c r="K47" s="1">
-        <v>547706.4791</v>
+        <v>547964.1066000001</v>
       </c>
       <c r="L47" s="1">
-        <v>13.222</v>
+        <v>13.2282</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.0061</v>
@@ -16776,10 +16779,10 @@
         <v>611785.2944</v>
       </c>
       <c r="K48" s="1">
-        <v>598498.7365</v>
+        <v>598756.3639999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3334</v>
+        <v>13.3392</v>
       </c>
       <c r="M48" s="1">
         <v>0.5</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.835</v>
@@ -16829,10 +16832,10 @@
         <v>681443.3623</v>
       </c>
       <c r="K49" s="1">
-        <v>637644.704</v>
+        <v>637902.3316</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3145</v>
+        <v>13.3199</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.4216</v>
@@ -16882,10 +16885,10 @@
         <v>720638.2865</v>
       </c>
       <c r="K50" s="1">
-        <v>667843.9088</v>
+        <v>668101.5363</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3384</v>
+        <v>13.3435</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2404</v>
@@ -16935,10 +16938,10 @@
         <v>671984.3111</v>
       </c>
       <c r="K51" s="1">
-        <v>663274.3521</v>
+        <v>663550.2256</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3313</v>
+        <v>13.3369</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.382</v>
@@ -16988,10 +16991,10 @@
         <v>655588.4647</v>
       </c>
       <c r="K52" s="1">
-        <v>687825.6628</v>
+        <v>688101.5363</v>
       </c>
       <c r="L52" s="1">
-        <v>13.329</v>
+        <v>13.3343</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.9583</v>
@@ -17041,10 +17044,10 @@
         <v>642707.676</v>
       </c>
       <c r="K53" s="1">
-        <v>715736.7927</v>
+        <v>716012.6662</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2905</v>
+        <v>13.2956</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2036</v>
@@ -17094,10 +17097,10 @@
         <v>666055.307</v>
       </c>
       <c r="K54" s="1">
-        <v>725736.7927</v>
+        <v>726012.6662</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2705</v>
+        <v>13.2756</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9136</v>
@@ -17147,10 +17150,10 @@
         <v>735034.3302</v>
       </c>
       <c r="K55" s="1">
-        <v>735736.7927</v>
+        <v>736012.6662</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2552</v>
+        <v>13.2601</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.4338</v>
@@ -17200,10 +17203,10 @@
         <v>774919.7278</v>
       </c>
       <c r="K56" s="1">
-        <v>765424.4496000001</v>
+        <v>765700.3231</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2426</v>
+        <v>13.2474</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.9657</v>
@@ -17253,10 +17256,10 @@
         <v>757534.3378</v>
       </c>
       <c r="K57" s="1">
-        <v>775424.4496000001</v>
+        <v>775700.3231</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2454</v>
+        <v>13.2501</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3568</v>
@@ -17306,10 +17309,10 @@
         <v>806450.7356</v>
       </c>
       <c r="K58" s="1">
-        <v>785424.4496000001</v>
+        <v>785700.3231</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2421</v>
+        <v>13.2467</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.2487</v>
@@ -17359,10 +17362,10 @@
         <v>809739.6804</v>
       </c>
       <c r="K59" s="1">
-        <v>811231.0518</v>
+        <v>811506.9253</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2466</v>
+        <v>13.2511</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.3991</v>
@@ -17412,10 +17415,10 @@
         <v>829005.0862</v>
       </c>
       <c r="K60" s="1">
-        <v>821231.0518</v>
+        <v>821506.9253</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2469</v>
+        <v>13.2514</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.5985</v>
@@ -17465,10 +17468,10 @@
         <v>873768.1441</v>
       </c>
       <c r="K61" s="1">
-        <v>831231.0518</v>
+        <v>831506.9253</v>
       </c>
       <c r="L61" s="1">
-        <v>13.249</v>
+        <v>13.2534</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.6955</v>
@@ -17518,10 +17521,10 @@
         <v>889941.8482</v>
       </c>
       <c r="K62" s="1">
-        <v>863548.965</v>
+        <v>863824.8385</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2627</v>
+        <v>13.267</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.3656</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8086</v>
+        <v>12.8216</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9161</v>
+        <v>12.9271</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0473</v>
+        <v>13.055</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2627</v>
+        <v>13.267</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>263824.8385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0226</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4812</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2945</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1216</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0302</v>
       </c>
     </row>
   </sheetData>
